--- a/FBOutput.xlsx
+++ b/FBOutput.xlsx
@@ -345,57 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Fan Count</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Posts</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DummyBrand</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{"data": [{"created_time": "2019-08-05T12:16:10+0000", "story": "DummyBrand updated their cover photo.", "id": "107513663924342_113193796689662"}, {"created_time": "2019-08-02T13:07:00+0000", "message": "Blogger The London Mum shares some great hamper ideas made from recycled material- we love this the idea of creating handmade crochet gifts! Very thrifty!", "id": "107513663924342_107526730589702"}, {"created_time": "2019-08-01T09:04:00+0000", "message": "Mummy Fever - we love it! Thanks for sharing the great family tree your little ones created during messy play! \nStay tuned for the new green community workshops happening soon\n\n #green #happycustomers", "id": "107513663924342_107525323923176"}, {"created_time": "2019-07-31T12:47:57+0000", "message": "We understand that things can get a little messy this summer! Extra Sensitive and environment-friendly Baby Wipes 18 Pack now available at Amazon!\n\n Shop now for the exclusive offer until 31.08.16. Subject to availability.\n\n#plasticfree #initiative", "id": "107513663924342_107517607257281"}], "paging": {"cursors": {"before": "Q2c4U1pXNTBYM0YxWlhKNVgzTjBiM0o1WDJsa0R5UXhNRGMxTVRNMk5qTTVNalF6TkRJNkxUUTNNamMyTXpRMU16RTFOak01T1RNMU1EWVBER0ZA3YVY5emRHOXllVjlwWkE4ZAk1UQTNOVEV6TmpZAek9USTBNelF5WHpFeE16RTVNemM1TmpZANE9UWTJNZAzhFZAEdsdFpRWmRTQjRLQVE9PQZDZD", "after": "Q2c4U1pXNTBYM0YxWlhKNVgzTjBiM0o1WDJsa0R5UXhNRGMxTVRNMk5qTTVNalF6TkRJNkxUY3pPRGMwTXpFM09URTFNREV6TmpFM09UUVBER0ZA3YVY5emRHOXllVjlwWkE4ZAk1UQTNOVEV6TmpZAek9USTBNelF5WHpFd056VXhOell3TnpJMU56STRNUThFZAEdsdFpRWmRRWTM5QVE9PQZDZD"}}}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/DummyBrandKITC/</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/FBOutput.xlsx
+++ b/FBOutput.xlsx
@@ -1,34 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Synergos\OneDrive\Documents\SusMon_Facebook_API\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A96F7-5CAC-4425-B595-910D983D950C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>Brand ID</t>
+  </si>
+  <si>
+    <t>Post ID</t>
+  </si>
+  <si>
+    <t>Created Time</t>
+  </si>
+  <si>
+    <t>#Comments</t>
+  </si>
+  <si>
+    <t>#like</t>
+  </si>
+  <si>
+    <t>#love</t>
+  </si>
+  <si>
+    <t>#wow</t>
+  </si>
+  <si>
+    <t>#haha</t>
+  </si>
+  <si>
+    <t>#sad</t>
+  </si>
+  <si>
+    <t>#angry</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>107513663924342_107526730589702</t>
+  </si>
+  <si>
+    <t>2019-08-02T13:07:00+0000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Blogger The London Mum shares some great hamper ideas made from recycled material- we love this the idea of creating handmade crochet gifts! Very thrifty!</t>
+  </si>
+  <si>
+    <t>107513663924342_107525323923176</t>
+  </si>
+  <si>
+    <t>2019-08-01T09:04:00+0000</t>
+  </si>
+  <si>
+    <t>Mummy Fever - we love it! Thanks for sharing the great family tree your little ones created during messy play! 
+Stay tuned for the new green community workshops happening soon
+ #green #happycustomers</t>
+  </si>
+  <si>
+    <t>107513663924342_107517607257281</t>
+  </si>
+  <si>
+    <t>2019-07-31T12:47:57+0000</t>
+  </si>
+  <si>
+    <t>We understand that things can get a little messy this summer! Extra Sensitive and environment-friendly Baby Wipes 18 Pack now available at Amazon!
+ Shop now for the exclusive offer until 31.08.16. Subject to availability.
+#plasticfree #initiative</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +123,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,262 +428,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="23.04296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Brand ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Post ID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Created Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>#Comments</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>#like</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>#love</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>#wow</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>#haha</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>#sad</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>#angry</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>shares</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A2">
         <v>107513663924342</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>107513663924342_107526730589702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2019-08-02T13:07:00+0000</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Blogger The London Mum shares some great hamper ideas made from recycled material- we love this the idea of creating handmade crochet gifts! Very thrifty!</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A3">
         <v>107513663924342</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>107513663924342_107525323923176</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2019-08-01T09:04:00+0000</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Mummy Fever - we love it! Thanks for sharing the great family tree your little ones created during messy play! 
-Stay tuned for the new green community workshops happening soon
- #green #happycustomers</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4">
         <v>107513663924342</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>107513663924342_107517607257281</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2019-07-31T12:47:57+0000</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>We understand that things can get a little messy this summer! Extra Sensitive and environment-friendly Baby Wipes 18 Pack now available at Amazon!
- Shop now for the exclusive offer until 31.08.16. Subject to availability.
-#plasticfree #initiative</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>